--- a/test_data/test_calorie_sheet.xlsx
+++ b/test_data/test_calorie_sheet.xlsx
@@ -284,6 +284,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="16.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -322,47 +325,50 @@
         <v>20.0</v>
       </c>
       <c r="F2" s="1">
-        <v>310.0</v>
+        <f t="shared" ref="F2:F4" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="C3" s="1">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D3" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E3" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" s="1">
-        <v>585.0</v>
+        <f t="shared" si="1"/>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="B4" s="1">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" s="1">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" s="1">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="1">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" s="1">
-        <v>100.0</v>
+        <f t="shared" si="1"/>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_calorie_sheet.xlsx
+++ b/test_data/test_calorie_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Protein </t>
   </si>
@@ -29,6 +29,27 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>8A</t>
   </si>
 </sst>
 </file>
@@ -325,7 +346,7 @@
         <v>20.0</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F4" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
+        <f t="shared" ref="F2:F5" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
         <v>310</v>
       </c>
     </row>
@@ -369,6 +390,61 @@
       <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>265</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-10.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_calorie_sheet.xlsx
+++ b/test_data/test_calorie_sheet.xlsx
@@ -13,22 +13,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Protein </t>
-  </si>
-  <si>
-    <t>Carbs</t>
-  </si>
-  <si>
-    <t>Dietry-Fiber</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>PROTEIN</t>
+  </si>
+  <si>
+    <t>CARBS</t>
+  </si>
+  <si>
+    <t>DIETRY-FIBER</t>
+  </si>
+  <si>
+    <t>FAT</t>
+  </si>
+  <si>
+    <t>ALCOHOL</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
   </si>
   <si>
     <t>P</t>
@@ -346,7 +346,7 @@
         <v>20.0</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F5" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
+        <f t="shared" ref="F2:F4" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
         <v>310</v>
       </c>
     </row>
@@ -409,8 +409,7 @@
         <v>30.0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>630</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="6">

--- a/test_data/test_calorie_sheet.xlsx
+++ b/test_data/test_calorie_sheet.xlsx
@@ -409,7 +409,7 @@
         <v>30.0</v>
       </c>
       <c r="F5" s="1">
-        <v>550.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="6">

--- a/test_data/test_calorie_sheet.xlsx
+++ b/test_data/test_calorie_sheet.xlsx
@@ -331,7 +331,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>15.0</v>
+        <v>15.7</v>
       </c>
       <c r="B2" s="1">
         <v>30.0</v>
@@ -347,7 +347,7 @@
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F4" si="1">ABS(4*A2)+(4*ABS(B2-C2))+ABS(9*D2)+ABS(7*E2)</f>
-        <v>310</v>
+        <v>312.8</v>
       </c>
     </row>
     <row r="3">
